--- a/src/main/resources/TemplateConfiguration.xlsx
+++ b/src/main/resources/TemplateConfiguration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinzi\myproject\Configurator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinzi\myproject\Configurator\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="220">
   <si>
     <t>CY_CYCLE_ID</t>
   </si>
@@ -675,118 +675,22 @@
     <t>description2</t>
   </si>
   <si>
-    <t>AO004972_w:CA</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>AO004972_w:CFI</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>AO004973_w:CA</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>AO004973_w:CFI</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>AO004974_w:CA</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>AO004974_w:CFI2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>AO004975_A:CA</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>AO004975_A:CFI</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>AO004975_B:CA</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>AO004975_B:CFI</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>AO004976:CFI2</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>AO004977_w:CA</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>AO004977_w:CFI</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>PMOyyy91:CA</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>PMOyyy91:CFI</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>AO004973_w</t>
-  </si>
-  <si>
-    <t>AO004974_w</t>
-  </si>
-  <si>
-    <t>AO004975_B</t>
-  </si>
-  <si>
-    <t>AO004976</t>
-  </si>
-  <si>
-    <t>AO004977_w</t>
-  </si>
-  <si>
-    <t>PMOyyy91</t>
-  </si>
-  <si>
     <t>GICT_ITALY_MERCATO</t>
   </si>
   <si>
     <t>P58_Digital_Customer_Journ</t>
+  </si>
+  <si>
+    <t>P59</t>
+  </si>
+  <si>
+    <t>P59_Change_Deploy_CRMT</t>
+  </si>
+  <si>
+    <t>P57</t>
+  </si>
+  <si>
+    <t>P57_Pricing_Supply</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3365,6 +3269,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3399,10 +3304,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3427,10 +3332,32 @@
         <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3440,7 +3367,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD8"/>
@@ -3450,207 +3377,21 @@
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>248</v>
-      </c>
-      <c r="B7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection sqref="A1:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>230</v>
-      </c>
-      <c r="B9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>240</v>
-      </c>
-      <c r="B14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>